--- a/15-bubbleplot/15-bubbleplot.xlsx
+++ b/15-bubbleplot/15-bubbleplot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\15-bubbleplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81826C-5148-420C-952F-5423BE604E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707EBB1D-5CB1-443E-9891-5EEAC4D691DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -47,25 +47,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -75,15 +61,9 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="1">
     <bk>
       <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -92,7 +72,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -110,18 +90,12 @@
     <pythonScript>
       <code>mpg_df = xl(%P2%, headers=True)</code>
     </pythonScript>
-    <pythonScript>
-      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='cylinders')</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='acceleration')</code>
-    </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
   <si>
     <t>mpg</t>
   </si>
@@ -155,15 +129,12 @@
   <si>
     <t>europe</t>
   </si>
-  <si>
-    <t xml:space="preserve">https://x.com/i/grok/share/y80RUr9UC2TW0yLCdQsm35lCN </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -294,14 +265,6 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -604,7 +567,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -647,13 +610,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -687,7 +648,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -709,60 +669,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>518932</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>121166</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E8C0E3-3DA2-0DA0-D982-FD963098D795}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J6"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10439400" y="1504950"/>
-          <a:ext cx="5148082" cy="3950216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,7 +827,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -940,21 +846,11 @@
     <v>1</v>
     <v>2</v>
   </rv>
-  <rv s="3">
-    <v>0</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-  <rv s="3">
-    <v>1</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -969,11 +865,6 @@
     <k n="Python_str" t="s"/>
     <k n="preview" t="r"/>
     <k n="_Provider" t="spb"/>
-  </s>
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
@@ -1018,13 +909,6 @@
     <k n="name" t="s"/>
   </s>
 </spbStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,19 +1248,19 @@
   <dimension ref="A1:J399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="9.04296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.76953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.03515625" customWidth="1"/>
+    <col min="3" max="3" width="12.73828125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,11 +1285,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J1" t="e" cm="1" vm="1">
+        <f t="array" ref="J1">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1431,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1456,12 +1341,8 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="e" cm="1" vm="1">
-        <f t="array" ref="J3">_xlfn._xlws.PY(0,1,mpg[#All])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1487,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1513,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1538,12 +1419,8 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="e" cm="1" vm="2">
-        <f t="array" ref="J6">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1569,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1595,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1621,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1647,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1673,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1699,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1725,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1751,7 +1628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1777,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1803,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1829,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1855,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1881,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1907,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1933,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1959,7 +1836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1985,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2011,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2037,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2063,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2089,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2115,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2141,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2167,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2193,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2219,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2245,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2268,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2294,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2320,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2346,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2372,7 +2249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2398,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2424,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2450,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2476,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2502,7 +2379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2527,12 +2404,8 @@
       <c r="H44" t="s">
         <v>8</v>
       </c>
-      <c r="J44" t="e" cm="1" vm="3">
-        <f t="array" ref="J44">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2558,7 +2431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2584,7 +2457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2610,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2636,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2662,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2688,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2714,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2740,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2766,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2792,7 +2665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2818,7 +2691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>35</v>
       </c>
@@ -2844,7 +2717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>27</v>
       </c>
@@ -2870,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2896,7 +2769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2922,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>25</v>
       </c>
@@ -2948,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>23</v>
       </c>
@@ -2974,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3000,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3026,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3052,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3078,7 +2951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3104,7 +2977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3130,7 +3003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3156,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3182,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3208,7 +3081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3234,7 +3107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3260,7 +3133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3286,7 +3159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3312,7 +3185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3338,7 +3211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3364,7 +3237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3390,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3416,7 +3289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3442,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3468,7 +3341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3494,7 +3367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3520,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3546,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3572,7 +3445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3598,7 +3471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3624,7 +3497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3650,7 +3523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3676,7 +3549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3702,7 +3575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3728,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>15</v>
       </c>
@@ -3754,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>12</v>
       </c>
@@ -3780,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3806,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3832,7 +3705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3858,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>13</v>
       </c>
@@ -3884,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>12</v>
       </c>
@@ -3910,7 +3783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>13</v>
       </c>
@@ -3936,7 +3809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>18</v>
       </c>
@@ -3962,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>16</v>
       </c>
@@ -3988,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4014,7 +3887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4040,7 +3913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4066,7 +3939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4092,7 +3965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4118,7 +3991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4144,7 +4017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4170,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4196,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4222,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4248,7 +4121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4274,7 +4147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4300,7 +4173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4326,7 +4199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4352,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4378,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4404,7 +4277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4430,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4456,7 +4329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4482,7 +4355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4508,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4534,7 +4407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4560,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4586,7 +4459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4612,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4638,7 +4511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4664,7 +4537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4690,7 +4563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4713,7 +4586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>19</v>
       </c>
@@ -4739,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>15</v>
       </c>
@@ -4765,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>31</v>
       </c>
@@ -4791,7 +4664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>26</v>
       </c>
@@ -4817,7 +4690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>32</v>
       </c>
@@ -4843,7 +4716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>25</v>
       </c>
@@ -4869,7 +4742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>16</v>
       </c>
@@ -4895,7 +4768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>16</v>
       </c>
@@ -4921,7 +4794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>18</v>
       </c>
@@ -4947,7 +4820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>16</v>
       </c>
@@ -4973,7 +4846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>13</v>
       </c>
@@ -4999,7 +4872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5025,7 +4898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5051,7 +4924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5077,7 +4950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5103,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5129,7 +5002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5155,7 +5028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5181,7 +5054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5207,7 +5080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5233,7 +5106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5259,7 +5132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5285,7 +5158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5311,7 +5184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5337,7 +5210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5363,7 +5236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5389,7 +5262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5415,7 +5288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5441,7 +5314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5467,7 +5340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5493,7 +5366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5519,7 +5392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5545,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5571,7 +5444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5597,7 +5470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5623,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5649,7 +5522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5675,7 +5548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5701,7 +5574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5727,7 +5600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>13</v>
       </c>
@@ -5753,7 +5626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>29</v>
       </c>
@@ -5779,7 +5652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>23</v>
       </c>
@@ -5805,7 +5678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5831,7 +5704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>23</v>
       </c>
@@ -5857,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>24</v>
       </c>
@@ -5883,7 +5756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>25</v>
       </c>
@@ -5909,7 +5782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>24</v>
       </c>
@@ -5935,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>18</v>
       </c>
@@ -5961,7 +5834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>29</v>
       </c>
@@ -5987,7 +5860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6013,7 +5886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6039,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>23</v>
       </c>
@@ -6065,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>22</v>
       </c>
@@ -6091,7 +5964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6117,7 +5990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6143,7 +6016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6169,7 +6042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6195,7 +6068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6221,7 +6094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6247,7 +6120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6273,7 +6146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6299,7 +6172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6325,7 +6198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6351,7 +6224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6377,7 +6250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6403,7 +6276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>22</v>
       </c>
@@ -6429,7 +6302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6455,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6481,7 +6354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6507,7 +6380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6533,7 +6406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6559,7 +6432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6585,7 +6458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6611,7 +6484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6637,7 +6510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6663,7 +6536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6689,7 +6562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6715,7 +6588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>32</v>
       </c>
@@ -6741,7 +6614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>28</v>
       </c>
@@ -6767,7 +6640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -6793,7 +6666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>20</v>
       </c>
@@ -6819,7 +6692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>13</v>
       </c>
@@ -6845,7 +6718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6871,7 +6744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>19</v>
       </c>
@@ -6897,7 +6770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -6923,7 +6796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -6949,7 +6822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>13</v>
       </c>
@@ -6975,7 +6848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7001,7 +6874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7027,7 +6900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -7053,7 +6926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>30</v>
       </c>
@@ -7079,7 +6952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7105,7 +6978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7131,7 +7004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7157,7 +7030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7183,7 +7056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7209,7 +7082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7235,7 +7108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7261,7 +7134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7287,7 +7160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7313,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7339,7 +7212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -7365,7 +7238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>16</v>
       </c>
@@ -7391,7 +7264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -7417,7 +7290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -7443,7 +7316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7469,7 +7342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7495,7 +7368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7521,7 +7394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7547,7 +7420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7573,7 +7446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7599,7 +7472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7625,7 +7498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7651,7 +7524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7677,7 +7550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7703,7 +7576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7729,7 +7602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -7755,7 +7628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -7781,7 +7654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -7807,7 +7680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -7833,7 +7706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -7859,7 +7732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -7885,7 +7758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -7911,7 +7784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -7937,7 +7810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -7963,7 +7836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -7989,7 +7862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -8015,7 +7888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -8041,7 +7914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -8067,7 +7940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -8093,7 +7966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8119,7 +7992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8145,7 +8018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8171,7 +8044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8197,7 +8070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -8223,7 +8096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -8249,7 +8122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -8275,7 +8148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -8301,7 +8174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -8327,7 +8200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>30</v>
       </c>
@@ -8353,7 +8226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -8379,7 +8252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -8405,7 +8278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -8431,7 +8304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8457,7 +8330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8483,7 +8356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8509,7 +8382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8535,7 +8408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8561,7 +8434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8587,7 +8460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8613,7 +8486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8639,7 +8512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8665,7 +8538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8691,7 +8564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8717,7 +8590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -8743,7 +8616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -8769,7 +8642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -8795,7 +8668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -8821,7 +8694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>17</v>
       </c>
@@ -8847,7 +8720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -8873,7 +8746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -8899,7 +8772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -8925,7 +8798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -8951,7 +8824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -8977,7 +8850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -9003,7 +8876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -9029,7 +8902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -9055,7 +8928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -9081,7 +8954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9107,7 +8980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -9133,7 +9006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -9159,7 +9032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>23</v>
       </c>
@@ -9185,7 +9058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -9211,7 +9084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -9237,7 +9110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -9263,7 +9136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -9289,7 +9162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -9315,7 +9188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -9341,7 +9214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -9367,7 +9240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -9393,7 +9266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -9419,7 +9292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -9445,7 +9318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9471,7 +9344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9497,7 +9370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9523,7 +9396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9549,7 +9422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9575,7 +9448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9601,7 +9474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9627,7 +9500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9653,7 +9526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9679,7 +9552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9705,7 +9578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9731,7 +9604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>37</v>
       </c>
@@ -9757,7 +9630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -9783,7 +9656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -9809,7 +9682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -9835,7 +9708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -9861,7 +9734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -9887,7 +9760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -9913,7 +9786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -9939,7 +9812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>30</v>
       </c>
@@ -9965,7 +9838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -9991,7 +9864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -10014,7 +9887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -10040,7 +9913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -10066,7 +9939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -10092,7 +9965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -10118,7 +9991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>35</v>
       </c>
@@ -10144,7 +10017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -10167,7 +10040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -10193,7 +10066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -10219,7 +10092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -10245,7 +10118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -10271,7 +10144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -10297,7 +10170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>30</v>
       </c>
@@ -10323,7 +10196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -10349,7 +10222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>39</v>
       </c>
@@ -10375,7 +10248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -10401,7 +10274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -10427,7 +10300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10453,7 +10326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10479,7 +10352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10505,7 +10378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10531,7 +10404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10557,7 +10430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10583,7 +10456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10609,7 +10482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10632,7 +10505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10658,7 +10531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10684,7 +10557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10710,7 +10583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10736,7 +10609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -10762,7 +10635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -10788,7 +10661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -10814,7 +10687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -10840,7 +10713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -10866,7 +10739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -10892,7 +10765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -10918,7 +10791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -10944,7 +10817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>28</v>
       </c>
@@ -10970,7 +10843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>27</v>
       </c>
@@ -10996,7 +10869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>34</v>
       </c>
@@ -11022,7 +10895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>31</v>
       </c>
@@ -11048,7 +10921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>29</v>
       </c>
@@ -11074,7 +10947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>27</v>
       </c>
@@ -11100,7 +10973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>24</v>
       </c>
@@ -11126,7 +10999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>23</v>
       </c>
@@ -11149,7 +11022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>36</v>
       </c>
@@ -11175,7 +11048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>37</v>
       </c>
@@ -11201,7 +11074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>31</v>
       </c>
@@ -11227,7 +11100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>38</v>
       </c>
@@ -11253,7 +11126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>36</v>
       </c>
@@ -11279,7 +11152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>36</v>
       </c>
@@ -11305,7 +11178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>36</v>
       </c>
@@ -11331,7 +11204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>34</v>
       </c>
@@ -11357,7 +11230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>38</v>
       </c>
@@ -11383,7 +11256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>32</v>
       </c>
@@ -11409,7 +11282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11435,7 +11308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11461,7 +11334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11487,7 +11360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11513,7 +11386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11539,7 +11412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11565,7 +11438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11591,7 +11464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11617,7 +11490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11643,7 +11516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11669,7 +11542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11695,7 +11568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11721,7 +11594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>31</v>
       </c>
@@ -11748,13 +11621,9 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{E0240C43-3CC2-4D22-A006-B03AA4B733CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>